--- a/Code/Results/Cases/Case_4_197/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_197/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.55245022527747</v>
+        <v>14.0959030901961</v>
       </c>
       <c r="C2">
-        <v>6.375289358810273</v>
+        <v>6.087916234589967</v>
       </c>
       <c r="D2">
-        <v>9.174215935593475</v>
+        <v>13.77070329496899</v>
       </c>
       <c r="E2">
-        <v>8.514870205867876</v>
+        <v>14.18009475633176</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.148808840580223</v>
+        <v>3.733869478229223</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.5941920395605</v>
+        <v>33.02233627386346</v>
       </c>
       <c r="J2">
-        <v>5.197251863433915</v>
+        <v>8.586003250324362</v>
       </c>
       <c r="K2">
-        <v>10.3141106369208</v>
+        <v>11.47194820863597</v>
       </c>
       <c r="L2">
-        <v>7.492775630482297</v>
+        <v>12.55167725221384</v>
       </c>
       <c r="M2">
-        <v>10.37823148725753</v>
+        <v>16.60304737728586</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.82599767568638</v>
+        <v>34.52129130251089</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.80772089136064</v>
+        <v>13.949861615546</v>
       </c>
       <c r="C3">
-        <v>6.188122108065759</v>
+        <v>6.016886658555023</v>
       </c>
       <c r="D3">
-        <v>9.006354731541908</v>
+        <v>13.77405470356705</v>
       </c>
       <c r="E3">
-        <v>8.525607552723987</v>
+        <v>14.20584320711117</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.154261350076633</v>
+        <v>3.735927541434649</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.71936339930474</v>
+        <v>33.1125060136506</v>
       </c>
       <c r="J3">
-        <v>5.209792615289901</v>
+        <v>8.590414220800605</v>
       </c>
       <c r="K3">
-        <v>9.679276583465434</v>
+        <v>11.37005805231713</v>
       </c>
       <c r="L3">
-        <v>7.431536229442893</v>
+        <v>12.56557178713197</v>
       </c>
       <c r="M3">
-        <v>10.10972473749907</v>
+        <v>16.59265597018036</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.86354862423438</v>
+        <v>34.60510711114545</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.32990212359903</v>
+        <v>13.8620809018982</v>
       </c>
       <c r="C4">
-        <v>6.069945208803229</v>
+        <v>5.972122363195941</v>
       </c>
       <c r="D4">
-        <v>8.906530697229941</v>
+        <v>13.77835391514031</v>
       </c>
       <c r="E4">
-        <v>8.53527726065175</v>
+        <v>14.22311629173331</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.157715966619378</v>
+        <v>3.737258959061593</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.80771369728413</v>
+        <v>33.17258247111704</v>
       </c>
       <c r="J4">
-        <v>5.217783363600817</v>
+        <v>8.593273496178687</v>
       </c>
       <c r="K4">
-        <v>9.268070188737399</v>
+        <v>11.30905276538524</v>
       </c>
       <c r="L4">
-        <v>7.396637156395935</v>
+        <v>12.57556202440454</v>
       </c>
       <c r="M4">
-        <v>9.945296216452995</v>
+        <v>16.58848715258694</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.90020195986266</v>
+        <v>34.66196454926108</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.13016191660032</v>
+        <v>13.82682250521217</v>
       </c>
       <c r="C5">
-        <v>6.020999146376314</v>
+        <v>5.953599063947452</v>
       </c>
       <c r="D5">
-        <v>8.866701558258615</v>
+        <v>13.78067052959611</v>
       </c>
       <c r="E5">
-        <v>8.539978185159764</v>
+        <v>14.23052372241373</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.159151194315896</v>
+        <v>3.737818614547472</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.84651663464605</v>
+        <v>33.19824889003227</v>
       </c>
       <c r="J5">
-        <v>5.221113412625398</v>
+        <v>8.594476731202944</v>
       </c>
       <c r="K5">
-        <v>9.095124245412906</v>
+        <v>11.28460793836995</v>
       </c>
       <c r="L5">
-        <v>7.383094513018191</v>
+        <v>12.58000054918493</v>
       </c>
       <c r="M5">
-        <v>9.878487003325093</v>
+        <v>16.5873471434315</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.9184465704107</v>
+        <v>34.68649005413064</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.09669657773756</v>
+        <v>13.82099994512904</v>
       </c>
       <c r="C6">
-        <v>6.012825058924505</v>
+        <v>5.950506525300685</v>
       </c>
       <c r="D6">
-        <v>8.860140266677877</v>
+        <v>13.7810893313031</v>
       </c>
       <c r="E6">
-        <v>8.54080431260873</v>
+        <v>14.23177599265868</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.159391187356006</v>
+        <v>3.737912578805403</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.85312633034986</v>
+        <v>33.20258233476777</v>
       </c>
       <c r="J6">
-        <v>5.221670838460606</v>
+        <v>8.594678829156344</v>
       </c>
       <c r="K6">
-        <v>9.066082473627086</v>
+        <v>11.28057466894442</v>
       </c>
       <c r="L6">
-        <v>7.380886744937455</v>
+        <v>12.58075976986848</v>
       </c>
       <c r="M6">
-        <v>9.867407878351118</v>
+        <v>16.58719167171315</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.92167266141273</v>
+        <v>34.69064434858588</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.32722848931105</v>
+        <v>13.86160326854123</v>
       </c>
       <c r="C7">
-        <v>6.069288252735817</v>
+        <v>5.97187368030993</v>
       </c>
       <c r="D7">
-        <v>8.905990061858466</v>
+        <v>13.77838287034904</v>
       </c>
       <c r="E7">
-        <v>8.535337597419829</v>
+        <v>14.22321469817336</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.157735210709183</v>
+        <v>3.737266437495482</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.80822578955036</v>
+        <v>33.17292382042217</v>
       </c>
       <c r="J7">
-        <v>5.217827974308144</v>
+        <v>8.593289569192535</v>
       </c>
       <c r="K7">
-        <v>9.265759527150189</v>
+        <v>11.30872138092924</v>
       </c>
       <c r="L7">
-        <v>7.396451767608932</v>
+        <v>12.57562039550971</v>
       </c>
       <c r="M7">
-        <v>9.944394289799423</v>
+        <v>16.58846951198312</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.90043476413573</v>
+        <v>34.6622898209759</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.30000818146369</v>
+        <v>14.04517883775925</v>
       </c>
       <c r="C8">
-        <v>6.311446990547828</v>
+        <v>6.063669129275216</v>
       </c>
       <c r="D8">
-        <v>9.115685287021167</v>
+        <v>13.77139432019922</v>
       </c>
       <c r="E8">
-        <v>8.517925796030777</v>
+        <v>14.18866939935208</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.150667078340593</v>
+        <v>3.734565067438838</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.63490949719521</v>
+        <v>33.05244881861941</v>
       </c>
       <c r="J8">
-        <v>5.20151598756911</v>
+        <v>8.587492893403166</v>
       </c>
       <c r="K8">
-        <v>10.09966712741996</v>
+        <v>11.43650829094896</v>
       </c>
       <c r="L8">
-        <v>7.471099440243199</v>
+        <v>12.55616563190797</v>
       </c>
       <c r="M8">
-        <v>10.28561111077029</v>
+        <v>16.5990070985289</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.83605593316931</v>
+        <v>34.54907098318182</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.0399277714368</v>
+        <v>14.41846000880712</v>
       </c>
       <c r="C9">
-        <v>6.759337832192918</v>
+        <v>6.234194714219348</v>
       </c>
       <c r="D9">
-        <v>9.551073270192441</v>
+        <v>13.77542295624769</v>
       </c>
       <c r="E9">
-        <v>8.508799027581828</v>
+        <v>14.13251494446759</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.137624982303236</v>
+        <v>3.729802879202341</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.390524164059</v>
+        <v>32.85358688647961</v>
       </c>
       <c r="J9">
-        <v>5.17180382150191</v>
+        <v>8.577318268735159</v>
       </c>
       <c r="K9">
-        <v>11.56512162797588</v>
+        <v>11.69835078823984</v>
       </c>
       <c r="L9">
-        <v>7.638910041858368</v>
+        <v>12.52956558441183</v>
       </c>
       <c r="M9">
-        <v>10.95457525823482</v>
+        <v>16.63709261439818</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.82274740643923</v>
+        <v>34.36988279828265</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.27242659041964</v>
+        <v>14.69849800801308</v>
       </c>
       <c r="C10">
-        <v>7.07068918898663</v>
+        <v>6.35325369567582</v>
       </c>
       <c r="D10">
-        <v>9.883603658836449</v>
+        <v>13.78911432428225</v>
       </c>
       <c r="E10">
-        <v>8.51818880349018</v>
+        <v>14.09829197607255</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.128499884209157</v>
+        <v>3.726626947940606</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.27539502675416</v>
+        <v>32.73027952376165</v>
       </c>
       <c r="J10">
-        <v>5.15131753636627</v>
+        <v>8.570563249928433</v>
       </c>
       <c r="K10">
-        <v>12.53895529015586</v>
+        <v>11.89609169252858</v>
       </c>
       <c r="L10">
-        <v>7.775209408891623</v>
+        <v>12.51702902777796</v>
       </c>
       <c r="M10">
-        <v>11.44149577917149</v>
+        <v>16.67551426252225</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.88886883350516</v>
+        <v>34.26438852408577</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.82477697762543</v>
+        <v>14.82665608484369</v>
       </c>
       <c r="C11">
-        <v>7.208292691786357</v>
+        <v>6.405975652978574</v>
       </c>
       <c r="D11">
-        <v>10.0372002556693</v>
+        <v>13.79765211309132</v>
       </c>
       <c r="E11">
-        <v>8.526141148089733</v>
+        <v>14.08424362643913</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.124437982167561</v>
+        <v>3.725251511397556</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.23844779723721</v>
+        <v>32.67913437328739</v>
       </c>
       <c r="J11">
-        <v>5.142279723537438</v>
+        <v>8.567645178438758</v>
       </c>
       <c r="K11">
-        <v>12.95992624709831</v>
+        <v>11.98689018003495</v>
       </c>
       <c r="L11">
-        <v>7.840019147308558</v>
+        <v>12.51283894114344</v>
       </c>
       <c r="M11">
-        <v>11.66119323627155</v>
+        <v>16.69521726724652</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.93697772002705</v>
+        <v>34.22208347690047</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.02964697676713</v>
+        <v>14.87525530570956</v>
       </c>
       <c r="C12">
-        <v>7.259808330924406</v>
+        <v>6.425726020775048</v>
       </c>
       <c r="D12">
-        <v>10.0956642857476</v>
+        <v>13.80121508792275</v>
       </c>
       <c r="E12">
-        <v>8.529697349124007</v>
+        <v>14.07914187855223</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.122911800688222</v>
+        <v>3.724740581062881</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.2268012603991</v>
+        <v>32.66047863706821</v>
       </c>
       <c r="J12">
-        <v>5.138897030903848</v>
+        <v>8.566562335003264</v>
       </c>
       <c r="K12">
-        <v>13.11619745772498</v>
+        <v>12.02136742029214</v>
       </c>
       <c r="L12">
-        <v>7.864961985188418</v>
+        <v>12.51146902458705</v>
       </c>
       <c r="M12">
-        <v>11.74406762122495</v>
+        <v>16.70299414599928</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.95791730951124</v>
+        <v>34.20688162200916</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.98571461961374</v>
+        <v>14.8647862057851</v>
       </c>
       <c r="C13">
-        <v>7.248739991637394</v>
+        <v>6.421482071655022</v>
       </c>
       <c r="D13">
-        <v>10.08306017100145</v>
+        <v>13.80043310261073</v>
       </c>
       <c r="E13">
-        <v>8.528906975917872</v>
+        <v>14.08023094108179</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.123239972768849</v>
+        <v>3.724850178741216</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.22920319875166</v>
+        <v>32.66446482049934</v>
       </c>
       <c r="J13">
-        <v>5.139623799307149</v>
+        <v>8.566794560352982</v>
       </c>
       <c r="K13">
-        <v>13.08268089756969</v>
+        <v>12.01393839666677</v>
       </c>
       <c r="L13">
-        <v>7.859572316944349</v>
+        <v>12.51175443210946</v>
       </c>
       <c r="M13">
-        <v>11.72623427380097</v>
+        <v>16.70130528011269</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.95328446620253</v>
+        <v>34.21011921640368</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.84171748216546</v>
+        <v>14.83065323601208</v>
       </c>
       <c r="C14">
-        <v>7.212542831748787</v>
+        <v>6.40760486390527</v>
       </c>
       <c r="D14">
-        <v>10.04200429448449</v>
+        <v>13.7979386429043</v>
       </c>
       <c r="E14">
-        <v>8.526422709808937</v>
+        <v>14.08381953525067</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.124312187396823</v>
+        <v>3.725209278367125</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.23744189568252</v>
+        <v>32.67758528697849</v>
       </c>
       <c r="J14">
-        <v>5.142000635447147</v>
+        <v>8.567555648547156</v>
       </c>
       <c r="K14">
-        <v>12.97284556266571</v>
+        <v>11.98972492122933</v>
       </c>
       <c r="L14">
-        <v>7.842063192800611</v>
+        <v>12.51272189729804</v>
       </c>
       <c r="M14">
-        <v>11.66801810268788</v>
+        <v>16.69585077162605</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.93864513771624</v>
+        <v>34.2208164107284</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.75295761151166</v>
+        <v>14.80975350006</v>
       </c>
       <c r="C15">
-        <v>7.190293656749103</v>
+        <v>6.399076550598972</v>
       </c>
       <c r="D15">
-        <v>10.01689452395334</v>
+        <v>13.79645360778612</v>
       </c>
       <c r="E15">
-        <v>8.524972442974914</v>
+        <v>14.08604603541701</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.12497048293463</v>
+        <v>3.725430527373693</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.24279752134428</v>
+        <v>32.68571466057465</v>
       </c>
       <c r="J15">
-        <v>5.143461667907919</v>
+        <v>8.568024720991298</v>
       </c>
       <c r="K15">
-        <v>12.90516001830028</v>
+        <v>11.97490486672288</v>
       </c>
       <c r="L15">
-        <v>7.831390462325559</v>
+        <v>12.51334270496041</v>
       </c>
       <c r="M15">
-        <v>11.63231562885967</v>
+        <v>16.69255072443403</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.9300364479624</v>
+        <v>34.22747531652528</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.23572547690863</v>
+        <v>14.69013443296978</v>
       </c>
       <c r="C16">
-        <v>7.061614234466282</v>
+        <v>6.349778602519009</v>
       </c>
       <c r="D16">
-        <v>9.873609595935088</v>
+        <v>13.78860264945105</v>
       </c>
       <c r="E16">
-        <v>8.517744486611678</v>
+        <v>14.09924060990722</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.128767061822904</v>
+        <v>3.726718226448623</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.27813068741167</v>
+        <v>32.73372157257439</v>
       </c>
       <c r="J16">
-        <v>5.151913779529409</v>
+        <v>8.570757059911777</v>
       </c>
       <c r="K16">
-        <v>12.5110027071725</v>
+        <v>11.89017243354663</v>
       </c>
       <c r="L16">
-        <v>7.771030176900993</v>
+        <v>12.51733323773258</v>
       </c>
       <c r="M16">
-        <v>11.42709635807658</v>
+        <v>16.67427104441673</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.88609860888683</v>
+        <v>34.26726771188881</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.910715913757</v>
+        <v>14.61691866246633</v>
       </c>
       <c r="C17">
-        <v>6.981631226341413</v>
+        <v>6.31916207992132</v>
       </c>
       <c r="D17">
-        <v>9.786279744928825</v>
+        <v>13.7843763626821</v>
       </c>
       <c r="E17">
-        <v>8.514264069343573</v>
+        <v>14.10772397468658</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.13111838784295</v>
+        <v>3.727525905121121</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.30384537424258</v>
+        <v>32.76443978209633</v>
       </c>
       <c r="J17">
-        <v>5.157170447085313</v>
+        <v>8.572472845914962</v>
       </c>
       <c r="K17">
-        <v>12.2635748628683</v>
+        <v>11.83838855260876</v>
       </c>
       <c r="L17">
-        <v>7.734717942788678</v>
+        <v>12.52016824756421</v>
       </c>
       <c r="M17">
-        <v>11.30069320091926</v>
+        <v>16.66362400173009</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.86385336156589</v>
+        <v>34.29313559238527</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.72093061413217</v>
+        <v>14.57488159617292</v>
       </c>
       <c r="C18">
-        <v>6.935248116837231</v>
+        <v>6.301417287309715</v>
       </c>
       <c r="D18">
-        <v>9.736270854503392</v>
+        <v>13.78216304277699</v>
       </c>
       <c r="E18">
-        <v>8.512607741883167</v>
+        <v>14.11274646747119</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.13247925350673</v>
+        <v>3.727996987276864</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.32007979118339</v>
+        <v>32.78257379455141</v>
       </c>
       <c r="J18">
-        <v>5.160220485060321</v>
+        <v>8.573474298764641</v>
       </c>
       <c r="K18">
-        <v>12.11918536821922</v>
+        <v>11.80868504022804</v>
       </c>
       <c r="L18">
-        <v>7.714096440317119</v>
+        <v>12.52194131640812</v>
       </c>
       <c r="M18">
-        <v>11.22782272749561</v>
+        <v>16.65770977617075</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.85274771338918</v>
+        <v>34.30854916170446</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.65618176455983</v>
+        <v>14.56066268071117</v>
       </c>
       <c r="C19">
-        <v>6.919478925386914</v>
+        <v>6.295386253740063</v>
       </c>
       <c r="D19">
-        <v>9.71937773287152</v>
+        <v>13.781451075073</v>
       </c>
       <c r="E19">
-        <v>8.512105813243357</v>
+        <v>14.11447158727911</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.132941494630173</v>
+        <v>3.728157610079336</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.32582074078337</v>
+        <v>32.78879363616917</v>
       </c>
       <c r="J19">
-        <v>5.161257756682179</v>
+        <v>8.573815880241062</v>
       </c>
       <c r="K19">
-        <v>12.06994035132222</v>
+        <v>11.79864273443341</v>
       </c>
       <c r="L19">
-        <v>7.707159837508633</v>
+        <v>12.52256613494473</v>
       </c>
       <c r="M19">
-        <v>11.20312336907512</v>
+        <v>16.65574345491568</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.84927375369389</v>
+        <v>34.31385980428364</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.94560815426163</v>
+        <v>14.62470517860718</v>
       </c>
       <c r="C20">
-        <v>6.99018487767918</v>
+        <v>6.322435285518592</v>
       </c>
       <c r="D20">
-        <v>9.795553547499351</v>
+        <v>13.78480376004294</v>
       </c>
       <c r="E20">
-        <v>8.514598694737545</v>
+        <v>14.10680610074738</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.130867217099488</v>
+        <v>3.727439251211202</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.30095765570951</v>
+        <v>32.7611215746134</v>
       </c>
       <c r="J20">
-        <v>5.156608124251574</v>
+        <v>8.572288689484129</v>
       </c>
       <c r="K20">
-        <v>12.2901286110906</v>
+        <v>11.84389283165236</v>
       </c>
       <c r="L20">
-        <v>7.738556104583595</v>
+        <v>12.51985171869799</v>
       </c>
       <c r="M20">
-        <v>11.31416675016419</v>
+        <v>16.66473572666136</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.86604564773265</v>
+        <v>34.29032653156569</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.88412900893135</v>
+        <v>14.84067738713768</v>
       </c>
       <c r="C21">
-        <v>7.223190955251639</v>
+        <v>6.41168680984091</v>
       </c>
       <c r="D21">
-        <v>10.05405550982346</v>
+        <v>13.79866239146564</v>
       </c>
       <c r="E21">
-        <v>8.527137487399269</v>
+        <v>14.08275956414034</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.123996934060159</v>
+        <v>3.725103533329899</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.23495732272364</v>
+        <v>32.67371216693123</v>
       </c>
       <c r="J21">
-        <v>5.14130142880401</v>
+        <v>8.567331497653271</v>
       </c>
       <c r="K21">
-        <v>13.00519188404414</v>
+        <v>11.99683467974659</v>
       </c>
       <c r="L21">
-        <v>7.847195191426628</v>
+        <v>12.5124318523843</v>
       </c>
       <c r="M21">
-        <v>11.6851267435671</v>
+        <v>16.69744435701791</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.94287015650881</v>
+        <v>34.2176521762548</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.472509512723</v>
+        <v>14.98220822212742</v>
       </c>
       <c r="C22">
-        <v>7.372021236810198</v>
+        <v>6.468765534607092</v>
       </c>
       <c r="D22">
-        <v>10.22473813462887</v>
+        <v>13.80964153890753</v>
       </c>
       <c r="E22">
-        <v>8.538515395143548</v>
+        <v>14.06831452998628</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.119576159235227</v>
+        <v>3.723634791712636</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.20555119251473</v>
+        <v>32.62073423807321</v>
       </c>
       <c r="J22">
-        <v>5.131528843925643</v>
+        <v>8.564220847976271</v>
       </c>
       <c r="K22">
-        <v>13.45423228108725</v>
+        <v>12.09732516090292</v>
       </c>
       <c r="L22">
-        <v>7.920532050804069</v>
+        <v>12.50884569982284</v>
       </c>
       <c r="M22">
-        <v>11.92568070801626</v>
+        <v>16.72065985369347</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.00900535598623</v>
+        <v>34.17492431898373</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.1607487764506</v>
+        <v>14.90664940363192</v>
       </c>
       <c r="C23">
-        <v>7.292906693241921</v>
+        <v>6.438418510390568</v>
       </c>
       <c r="D23">
-        <v>10.13349331817374</v>
+        <v>13.80360670757475</v>
       </c>
       <c r="E23">
-        <v>8.532146323639299</v>
+        <v>14.0759080074508</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.121929558710642</v>
+        <v>3.724413415550776</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.21994628963339</v>
+        <v>32.6486298102872</v>
       </c>
       <c r="J23">
-        <v>5.136723750058338</v>
+        <v>8.56586927345416</v>
       </c>
       <c r="K23">
-        <v>13.21623500695381</v>
+        <v>12.04365174026906</v>
       </c>
       <c r="L23">
-        <v>7.881178038268836</v>
+        <v>12.51064438426475</v>
       </c>
       <c r="M23">
-        <v>11.79748363492862</v>
+        <v>16.70810251003322</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.97220739493531</v>
+        <v>34.19729241670669</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.92984251190238</v>
+        <v>14.6211847181067</v>
       </c>
       <c r="C24">
-        <v>6.986319016279186</v>
+        <v>6.320955913969792</v>
       </c>
       <c r="D24">
-        <v>9.791360241360719</v>
+        <v>13.78460985938922</v>
       </c>
       <c r="E24">
-        <v>8.514446338381283</v>
+        <v>14.10722061894759</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.13098074311834</v>
+        <v>3.727478406455344</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.30225868414568</v>
+        <v>32.76262026064995</v>
       </c>
       <c r="J24">
-        <v>5.156862263415412</v>
+        <v>8.572371899799357</v>
       </c>
       <c r="K24">
-        <v>12.27813032889399</v>
+        <v>11.84140413400839</v>
       </c>
       <c r="L24">
-        <v>7.736820077514471</v>
+        <v>12.51999437533826</v>
       </c>
       <c r="M24">
-        <v>11.30807597561574</v>
+        <v>16.66423247103198</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.86504928136956</v>
+        <v>34.29159482037045</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.58771962967264</v>
+        <v>14.31629254942131</v>
       </c>
       <c r="C25">
-        <v>6.641204773624003</v>
+        <v>6.189125214296443</v>
       </c>
       <c r="D25">
-        <v>9.430917728424756</v>
+        <v>13.77244197614271</v>
       </c>
       <c r="E25">
-        <v>8.508503351035339</v>
+        <v>14.14646873810921</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.141069791164709</v>
+        <v>3.731034236293076</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.44579216527335</v>
+        <v>32.90338116659447</v>
       </c>
       <c r="J25">
-        <v>5.179602631557917</v>
+        <v>8.5799437989795</v>
       </c>
       <c r="K25">
-        <v>11.18681217882084</v>
+        <v>11.62646367034998</v>
       </c>
       <c r="L25">
-        <v>7.591221976034585</v>
+        <v>12.53552847117025</v>
       </c>
       <c r="M25">
-        <v>10.77410332547274</v>
+        <v>16.62494208533576</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.81353566143368</v>
+        <v>34.41376756072101</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_197/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_197/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.0959030901961</v>
+        <v>12.55245022527746</v>
       </c>
       <c r="C2">
-        <v>6.087916234589967</v>
+        <v>6.375289358810253</v>
       </c>
       <c r="D2">
-        <v>13.77070329496899</v>
+        <v>9.174215935593475</v>
       </c>
       <c r="E2">
-        <v>14.18009475633176</v>
+        <v>8.514870205867879</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.733869478229223</v>
+        <v>2.14880884058009</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.02233627386346</v>
+        <v>21.59419203956065</v>
       </c>
       <c r="J2">
-        <v>8.586003250324362</v>
+        <v>5.197251863433914</v>
       </c>
       <c r="K2">
-        <v>11.47194820863597</v>
+        <v>10.31411063692081</v>
       </c>
       <c r="L2">
-        <v>12.55167725221384</v>
+        <v>7.492775630482268</v>
       </c>
       <c r="M2">
-        <v>16.60304737728586</v>
+        <v>10.3782314872575</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>34.52129130251089</v>
+        <v>22.82599767568651</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.949861615546</v>
+        <v>11.8077208913606</v>
       </c>
       <c r="C3">
-        <v>6.016886658555023</v>
+        <v>6.188122108065848</v>
       </c>
       <c r="D3">
-        <v>13.77405470356705</v>
+        <v>9.006354731542023</v>
       </c>
       <c r="E3">
-        <v>14.20584320711117</v>
+        <v>8.525607552723995</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.735927541434649</v>
+        <v>2.154261350076365</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.1125060136506</v>
+        <v>21.71936339930449</v>
       </c>
       <c r="J3">
-        <v>8.590414220800605</v>
+        <v>5.209792615289833</v>
       </c>
       <c r="K3">
-        <v>11.37005805231713</v>
+        <v>9.67927658346553</v>
       </c>
       <c r="L3">
-        <v>12.56557178713197</v>
+        <v>7.431536229442898</v>
       </c>
       <c r="M3">
-        <v>16.59265597018036</v>
+        <v>10.10972473749901</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>34.60510711114545</v>
+        <v>22.86354862423416</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.8620809018982</v>
+        <v>11.32990212359902</v>
       </c>
       <c r="C4">
-        <v>5.972122363195941</v>
+        <v>6.06994520880336</v>
       </c>
       <c r="D4">
-        <v>13.77835391514031</v>
+        <v>8.906530697229892</v>
       </c>
       <c r="E4">
-        <v>14.22311629173331</v>
+        <v>8.535277260651808</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.737258959061593</v>
+        <v>2.15771596661951</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.17258247111704</v>
+        <v>21.80771369728415</v>
       </c>
       <c r="J4">
-        <v>8.593273496178687</v>
+        <v>5.217783363600885</v>
       </c>
       <c r="K4">
-        <v>11.30905276538524</v>
+        <v>9.268070188737415</v>
       </c>
       <c r="L4">
-        <v>12.57556202440454</v>
+        <v>7.39663715639596</v>
       </c>
       <c r="M4">
-        <v>16.58848715258694</v>
+        <v>9.945296216452993</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>34.66196454926108</v>
+        <v>22.90020195986265</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.82682250521217</v>
+        <v>11.13016191660034</v>
       </c>
       <c r="C5">
-        <v>5.953599063947452</v>
+        <v>6.020999146376198</v>
       </c>
       <c r="D5">
-        <v>13.78067052959611</v>
+        <v>8.866701558258489</v>
       </c>
       <c r="E5">
-        <v>14.23052372241373</v>
+        <v>8.539978185159827</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.737818614547472</v>
+        <v>2.159151194315763</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>33.19824889003227</v>
+        <v>21.84651663464611</v>
       </c>
       <c r="J5">
-        <v>8.594476731202944</v>
+        <v>5.22111341262543</v>
       </c>
       <c r="K5">
-        <v>11.28460793836995</v>
+        <v>9.095124245412812</v>
       </c>
       <c r="L5">
-        <v>12.58000054918493</v>
+        <v>7.383094513018248</v>
       </c>
       <c r="M5">
-        <v>16.5873471434315</v>
+        <v>9.878487003325183</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>34.68649005413064</v>
+        <v>22.91844657041079</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.82099994512904</v>
+        <v>11.09669657773754</v>
       </c>
       <c r="C6">
-        <v>5.950506525300685</v>
+        <v>6.012825058924602</v>
       </c>
       <c r="D6">
-        <v>13.7810893313031</v>
+        <v>8.860140266677863</v>
       </c>
       <c r="E6">
-        <v>14.23177599265868</v>
+        <v>8.540804312608795</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.737912578805403</v>
+        <v>2.159391187355738</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>33.20258233476777</v>
+        <v>21.85312633034963</v>
       </c>
       <c r="J6">
-        <v>8.594678829156344</v>
+        <v>5.221670838460673</v>
       </c>
       <c r="K6">
-        <v>11.28057466894442</v>
+        <v>9.066082473627135</v>
       </c>
       <c r="L6">
-        <v>12.58075976986848</v>
+        <v>7.380886744937458</v>
       </c>
       <c r="M6">
-        <v>16.58719167171315</v>
+        <v>9.8674078783511</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>34.69064434858588</v>
+        <v>22.92167266141249</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.86160326854123</v>
+        <v>11.327228489311</v>
       </c>
       <c r="C7">
-        <v>5.97187368030993</v>
+        <v>6.069288252735685</v>
       </c>
       <c r="D7">
-        <v>13.77838287034904</v>
+        <v>8.905990061858331</v>
       </c>
       <c r="E7">
-        <v>14.22321469817336</v>
+        <v>8.535337597419829</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.737266437495482</v>
+        <v>2.157735210709318</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.17292382042217</v>
+        <v>21.80822578955025</v>
       </c>
       <c r="J7">
-        <v>8.593289569192535</v>
+        <v>5.217827974308245</v>
       </c>
       <c r="K7">
-        <v>11.30872138092924</v>
+        <v>9.265759527150207</v>
       </c>
       <c r="L7">
-        <v>12.57562039550971</v>
+        <v>7.396451767608927</v>
       </c>
       <c r="M7">
-        <v>16.58846951198312</v>
+        <v>9.944394289799396</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>34.6622898209759</v>
+        <v>22.90043476413563</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.04517883775925</v>
+        <v>12.30000818146372</v>
       </c>
       <c r="C8">
-        <v>6.063669129275216</v>
+        <v>6.311446990547838</v>
       </c>
       <c r="D8">
-        <v>13.77139432019922</v>
+        <v>9.115685287021346</v>
       </c>
       <c r="E8">
-        <v>14.18866939935208</v>
+        <v>8.517925796030838</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.734565067438838</v>
+        <v>2.15066707834046</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.05244881861941</v>
+        <v>21.63490949719549</v>
       </c>
       <c r="J8">
-        <v>8.587492893403166</v>
+        <v>5.201515987569075</v>
       </c>
       <c r="K8">
-        <v>11.43650829094896</v>
+        <v>10.09966712741992</v>
       </c>
       <c r="L8">
-        <v>12.55616563190797</v>
+        <v>7.471099440243243</v>
       </c>
       <c r="M8">
-        <v>16.5990070985289</v>
+        <v>10.28561111077035</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>34.54907098318182</v>
+        <v>22.83605593316958</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.41846000880712</v>
+        <v>14.03992777143682</v>
       </c>
       <c r="C9">
-        <v>6.234194714219348</v>
+        <v>6.759337832193014</v>
       </c>
       <c r="D9">
-        <v>13.77542295624769</v>
+        <v>9.551073270192312</v>
       </c>
       <c r="E9">
-        <v>14.13251494446759</v>
+        <v>8.508799027581764</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.729802879202341</v>
+        <v>2.137624982302969</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>32.85358688647961</v>
+        <v>21.39052416405907</v>
       </c>
       <c r="J9">
-        <v>8.577318268735159</v>
+        <v>5.171803821501943</v>
       </c>
       <c r="K9">
-        <v>11.69835078823984</v>
+        <v>11.56512162797589</v>
       </c>
       <c r="L9">
-        <v>12.52956558441183</v>
+        <v>7.638910041858282</v>
       </c>
       <c r="M9">
-        <v>16.63709261439818</v>
+        <v>10.9545752582348</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>34.36988279828265</v>
+        <v>22.82274740643926</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.69849800801308</v>
+        <v>15.27242659041965</v>
       </c>
       <c r="C10">
-        <v>6.35325369567582</v>
+        <v>7.070689188986943</v>
       </c>
       <c r="D10">
-        <v>13.78911432428225</v>
+        <v>9.883603658836449</v>
       </c>
       <c r="E10">
-        <v>14.09829197607255</v>
+        <v>8.518188803490345</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.726626947940606</v>
+        <v>2.128499884209424</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.73027952376165</v>
+        <v>21.2753950267541</v>
       </c>
       <c r="J10">
-        <v>8.570563249928433</v>
+        <v>5.151317536366371</v>
       </c>
       <c r="K10">
-        <v>11.89609169252858</v>
+        <v>12.53895529015596</v>
       </c>
       <c r="L10">
-        <v>12.51702902777796</v>
+        <v>7.775209408891699</v>
       </c>
       <c r="M10">
-        <v>16.67551426252225</v>
+        <v>11.44149577917149</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.26438852408577</v>
+        <v>22.88886883350508</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.82665608484369</v>
+        <v>15.8247769776255</v>
       </c>
       <c r="C11">
-        <v>6.405975652978574</v>
+        <v>7.208292691786249</v>
       </c>
       <c r="D11">
-        <v>13.79765211309132</v>
+        <v>10.03720025566925</v>
       </c>
       <c r="E11">
-        <v>14.08424362643913</v>
+        <v>8.526141148089726</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.725251511397556</v>
+        <v>2.124437982167561</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.67913437328739</v>
+        <v>21.23844779723712</v>
       </c>
       <c r="J11">
-        <v>8.567645178438758</v>
+        <v>5.142279723537471</v>
       </c>
       <c r="K11">
-        <v>11.98689018003495</v>
+        <v>12.95992624709833</v>
       </c>
       <c r="L11">
-        <v>12.51283894114344</v>
+        <v>7.840019147308581</v>
       </c>
       <c r="M11">
-        <v>16.69521726724652</v>
+        <v>11.66119323627153</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.22208347690047</v>
+        <v>22.93697772002695</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.87525530570956</v>
+        <v>16.02964697676713</v>
       </c>
       <c r="C12">
-        <v>6.425726020775048</v>
+        <v>7.259808330924486</v>
       </c>
       <c r="D12">
-        <v>13.80121508792275</v>
+        <v>10.09566428574764</v>
       </c>
       <c r="E12">
-        <v>14.07914187855223</v>
+        <v>8.529697349124007</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.724740581062881</v>
+        <v>2.12291180068822</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.66047863706821</v>
+        <v>21.22680126039898</v>
       </c>
       <c r="J12">
-        <v>8.566562335003264</v>
+        <v>5.138897030903816</v>
       </c>
       <c r="K12">
-        <v>12.02136742029214</v>
+        <v>13.116197457725</v>
       </c>
       <c r="L12">
-        <v>12.51146902458705</v>
+        <v>7.864961985188372</v>
       </c>
       <c r="M12">
-        <v>16.70299414599928</v>
+        <v>11.74406762122493</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>34.20688162200916</v>
+        <v>22.95791730951106</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.8647862057851</v>
+        <v>15.98571461961378</v>
       </c>
       <c r="C13">
-        <v>6.421482071655022</v>
+        <v>7.248739991637295</v>
       </c>
       <c r="D13">
-        <v>13.80043310261073</v>
+        <v>10.08306017100143</v>
       </c>
       <c r="E13">
-        <v>14.08023094108179</v>
+        <v>8.528906975917916</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.724850178741216</v>
+        <v>2.123239972768983</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.66446482049934</v>
+        <v>21.22920319875167</v>
       </c>
       <c r="J13">
-        <v>8.566794560352982</v>
+        <v>5.139623799307182</v>
       </c>
       <c r="K13">
-        <v>12.01393839666677</v>
+        <v>13.08268089756971</v>
       </c>
       <c r="L13">
-        <v>12.51175443210946</v>
+        <v>7.859572316944419</v>
       </c>
       <c r="M13">
-        <v>16.70130528011269</v>
+        <v>11.72623427380097</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.21011921640368</v>
+        <v>22.95328446620257</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.83065323601208</v>
+        <v>15.84171748216537</v>
       </c>
       <c r="C14">
-        <v>6.40760486390527</v>
+        <v>7.212542831748781</v>
       </c>
       <c r="D14">
-        <v>13.7979386429043</v>
+        <v>10.0420042944846</v>
       </c>
       <c r="E14">
-        <v>14.08381953525067</v>
+        <v>8.526422709808932</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.725209278367125</v>
+        <v>2.124312187397092</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.67758528697849</v>
+        <v>21.23744189568268</v>
       </c>
       <c r="J14">
-        <v>8.567555648547156</v>
+        <v>5.142000635447047</v>
       </c>
       <c r="K14">
-        <v>11.98972492122933</v>
+        <v>12.97284556266568</v>
       </c>
       <c r="L14">
-        <v>12.51272189729804</v>
+        <v>7.842063192800562</v>
       </c>
       <c r="M14">
-        <v>16.69585077162605</v>
+        <v>11.66801810268792</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.2208164107284</v>
+        <v>22.93864513771636</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.80975350006</v>
+        <v>15.75295761151163</v>
       </c>
       <c r="C15">
-        <v>6.399076550598972</v>
+        <v>7.190293656749083</v>
       </c>
       <c r="D15">
-        <v>13.79645360778612</v>
+        <v>10.01689452395345</v>
       </c>
       <c r="E15">
-        <v>14.08604603541701</v>
+        <v>8.524972442974962</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.725430527373693</v>
+        <v>2.124970482934633</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.68571466057465</v>
+        <v>21.2427975213443</v>
       </c>
       <c r="J15">
-        <v>8.568024720991298</v>
+        <v>5.143461667907818</v>
       </c>
       <c r="K15">
-        <v>11.97490486672288</v>
+        <v>12.90516001830022</v>
       </c>
       <c r="L15">
-        <v>12.51334270496041</v>
+        <v>7.831390462325611</v>
       </c>
       <c r="M15">
-        <v>16.69255072443403</v>
+        <v>11.6323156288597</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.22747531652528</v>
+        <v>22.93003644796245</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.69013443296978</v>
+        <v>15.2357254769087</v>
       </c>
       <c r="C16">
-        <v>6.349778602519009</v>
+        <v>7.06161423446594</v>
       </c>
       <c r="D16">
-        <v>13.78860264945105</v>
+        <v>9.873609595935019</v>
       </c>
       <c r="E16">
-        <v>14.09924060990722</v>
+        <v>8.517744486611621</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.726718226448623</v>
+        <v>2.128767061822771</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.73372157257439</v>
+        <v>21.27813068741141</v>
       </c>
       <c r="J16">
-        <v>8.570757059911777</v>
+        <v>5.151913779529411</v>
       </c>
       <c r="K16">
-        <v>11.89017243354663</v>
+        <v>12.51100270717252</v>
       </c>
       <c r="L16">
-        <v>12.51733323773258</v>
+        <v>7.771030176901046</v>
       </c>
       <c r="M16">
-        <v>16.67427104441673</v>
+        <v>11.42709635807654</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.26726771188881</v>
+        <v>22.88609860888664</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.61691866246633</v>
+        <v>14.910715913757</v>
       </c>
       <c r="C17">
-        <v>6.31916207992132</v>
+        <v>6.981631226341283</v>
       </c>
       <c r="D17">
-        <v>13.7843763626821</v>
+        <v>9.786279744928825</v>
       </c>
       <c r="E17">
-        <v>14.10772397468658</v>
+        <v>8.514264069343582</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.727525905121121</v>
+        <v>2.13111838784295</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.76443978209633</v>
+        <v>21.30384537424263</v>
       </c>
       <c r="J17">
-        <v>8.572472845914962</v>
+        <v>5.157170447085313</v>
       </c>
       <c r="K17">
-        <v>11.83838855260876</v>
+        <v>12.26357486286827</v>
       </c>
       <c r="L17">
-        <v>12.52016824756421</v>
+        <v>7.734717942788691</v>
       </c>
       <c r="M17">
-        <v>16.66362400173009</v>
+        <v>11.30069320091928</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>34.29313559238527</v>
+        <v>22.8638533615659</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.57488159617292</v>
+        <v>14.72093061413217</v>
       </c>
       <c r="C18">
-        <v>6.301417287309715</v>
+        <v>6.935248116837083</v>
       </c>
       <c r="D18">
-        <v>13.78216304277699</v>
+        <v>9.736270854503424</v>
       </c>
       <c r="E18">
-        <v>14.11274646747119</v>
+        <v>8.512607741883217</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.727996987276864</v>
+        <v>2.132479253506462</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>32.78257379455141</v>
+        <v>21.32007979118357</v>
       </c>
       <c r="J18">
-        <v>8.573474298764641</v>
+        <v>5.160220485060287</v>
       </c>
       <c r="K18">
-        <v>11.80868504022804</v>
+        <v>12.11918536821915</v>
       </c>
       <c r="L18">
-        <v>12.52194131640812</v>
+        <v>7.714096440317084</v>
       </c>
       <c r="M18">
-        <v>16.65770977617075</v>
+        <v>11.22782272749564</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>34.30854916170446</v>
+        <v>22.85274771338934</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.56066268071117</v>
+        <v>14.65618176455982</v>
       </c>
       <c r="C19">
-        <v>6.295386253740063</v>
+        <v>6.919478925386898</v>
       </c>
       <c r="D19">
-        <v>13.781451075073</v>
+        <v>9.719377732871552</v>
       </c>
       <c r="E19">
-        <v>14.11447158727911</v>
+        <v>8.51210581324335</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.728157610079336</v>
+        <v>2.132941494630038</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>32.78879363616917</v>
+        <v>21.32582074078359</v>
       </c>
       <c r="J19">
-        <v>8.573815880241062</v>
+        <v>5.161257756682214</v>
       </c>
       <c r="K19">
-        <v>11.79864273443341</v>
+        <v>12.06994035132215</v>
       </c>
       <c r="L19">
-        <v>12.52256613494473</v>
+        <v>7.70715983750873</v>
       </c>
       <c r="M19">
-        <v>16.65574345491568</v>
+        <v>11.20312336907514</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>34.31385980428364</v>
+        <v>22.84927375369419</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.62470517860718</v>
+        <v>14.94560815426159</v>
       </c>
       <c r="C20">
-        <v>6.322435285518592</v>
+        <v>6.990184877679302</v>
       </c>
       <c r="D20">
-        <v>13.78480376004294</v>
+        <v>9.795553547499425</v>
       </c>
       <c r="E20">
-        <v>14.10680610074738</v>
+        <v>8.514598694737654</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.727439251211202</v>
+        <v>2.130867217099622</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.7611215746134</v>
+        <v>21.3009576557095</v>
       </c>
       <c r="J20">
-        <v>8.572288689484129</v>
+        <v>5.156608124251641</v>
       </c>
       <c r="K20">
-        <v>11.84389283165236</v>
+        <v>12.29012861109057</v>
       </c>
       <c r="L20">
-        <v>12.51985171869799</v>
+        <v>7.738556104583645</v>
       </c>
       <c r="M20">
-        <v>16.66473572666136</v>
+        <v>11.31416675016425</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>34.29032653156569</v>
+        <v>22.86604564773261</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.84067738713768</v>
+        <v>15.88412900893135</v>
       </c>
       <c r="C21">
-        <v>6.41168680984091</v>
+        <v>7.223190955251519</v>
       </c>
       <c r="D21">
-        <v>13.79866239146564</v>
+        <v>10.05405550982337</v>
       </c>
       <c r="E21">
-        <v>14.08275956414034</v>
+        <v>8.527137487399216</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.725103533329899</v>
+        <v>2.123996934059889</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.67371216693123</v>
+        <v>21.23495732272363</v>
       </c>
       <c r="J21">
-        <v>8.567331497653271</v>
+        <v>5.14130142880411</v>
       </c>
       <c r="K21">
-        <v>11.99683467974659</v>
+        <v>13.0051918840441</v>
       </c>
       <c r="L21">
-        <v>12.5124318523843</v>
+        <v>7.847195191426665</v>
       </c>
       <c r="M21">
-        <v>16.69744435701791</v>
+        <v>11.68512674356711</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.2176521762548</v>
+        <v>22.94287015650883</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.98220822212742</v>
+        <v>16.472509512723</v>
       </c>
       <c r="C22">
-        <v>6.468765534607092</v>
+        <v>7.372021236810402</v>
       </c>
       <c r="D22">
-        <v>13.80964153890753</v>
+        <v>10.22473813462895</v>
       </c>
       <c r="E22">
-        <v>14.06831452998628</v>
+        <v>8.538515395143605</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.723634791712636</v>
+        <v>2.119576159235225</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.62073423807321</v>
+        <v>21.20555119251472</v>
       </c>
       <c r="J22">
-        <v>8.564220847976271</v>
+        <v>5.131528843925675</v>
       </c>
       <c r="K22">
-        <v>12.09732516090292</v>
+        <v>13.45423228108729</v>
       </c>
       <c r="L22">
-        <v>12.50884569982284</v>
+        <v>7.920532050804073</v>
       </c>
       <c r="M22">
-        <v>16.72065985369347</v>
+        <v>11.92568070801626</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>34.17492431898373</v>
+        <v>23.00900535598615</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.90664940363192</v>
+        <v>16.16074877645058</v>
       </c>
       <c r="C23">
-        <v>6.438418510390568</v>
+        <v>7.292906693241783</v>
       </c>
       <c r="D23">
-        <v>13.80360670757475</v>
+        <v>10.13349331817385</v>
       </c>
       <c r="E23">
-        <v>14.0759080074508</v>
+        <v>8.53214632363942</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.724413415550776</v>
+        <v>2.121929558710775</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.6486298102872</v>
+        <v>21.21994628963353</v>
       </c>
       <c r="J23">
-        <v>8.56586927345416</v>
+        <v>5.136723750058338</v>
       </c>
       <c r="K23">
-        <v>12.04365174026906</v>
+        <v>13.21623500695378</v>
       </c>
       <c r="L23">
-        <v>12.51064438426475</v>
+        <v>7.881178038268928</v>
       </c>
       <c r="M23">
-        <v>16.70810251003322</v>
+        <v>11.79748363492866</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>34.19729241670669</v>
+        <v>22.97220739493543</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.6211847181067</v>
+        <v>14.92984251190239</v>
       </c>
       <c r="C24">
-        <v>6.320955913969792</v>
+        <v>6.986319016279404</v>
       </c>
       <c r="D24">
-        <v>13.78460985938922</v>
+        <v>9.791360241360547</v>
       </c>
       <c r="E24">
-        <v>14.10722061894759</v>
+        <v>8.51444633838133</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.727478406455344</v>
+        <v>2.130980743118208</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.76262026064995</v>
+        <v>21.30225868414579</v>
       </c>
       <c r="J24">
-        <v>8.572371899799357</v>
+        <v>5.156862263415579</v>
       </c>
       <c r="K24">
-        <v>11.84140413400839</v>
+        <v>12.278130328894</v>
       </c>
       <c r="L24">
-        <v>12.51999437533826</v>
+        <v>7.736820077514459</v>
       </c>
       <c r="M24">
-        <v>16.66423247103198</v>
+        <v>11.30807597561575</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>34.29159482037045</v>
+        <v>22.86504928136966</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.31629254942131</v>
+        <v>13.58771962967264</v>
       </c>
       <c r="C25">
-        <v>6.189125214296443</v>
+        <v>6.64120477362409</v>
       </c>
       <c r="D25">
-        <v>13.77244197614271</v>
+        <v>9.430917728424784</v>
       </c>
       <c r="E25">
-        <v>14.14646873810921</v>
+        <v>8.508503351035293</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.731034236293076</v>
+        <v>2.141069791164709</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.90338116659447</v>
+        <v>21.44579216527321</v>
       </c>
       <c r="J25">
-        <v>8.5799437989795</v>
+        <v>5.179602631557919</v>
       </c>
       <c r="K25">
-        <v>11.62646367034998</v>
+        <v>11.18681217882089</v>
       </c>
       <c r="L25">
-        <v>12.53552847117025</v>
+        <v>7.591221976034587</v>
       </c>
       <c r="M25">
-        <v>16.62494208533576</v>
+        <v>10.77410332547271</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>34.41376756072101</v>
+        <v>22.81353566143351</v>
       </c>
     </row>
   </sheetData>
